--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_377__Reeval_LHS_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_377__Reeval_LHS_Modell_1.3.xlsx
@@ -5945,7 +5945,7 @@
                   <c:v>68.24368286132812</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>63.12751007080078</c:v>
+                  <c:v>63.12750244140625</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>65.17594909667969</c:v>
@@ -5990,7 +5990,7 @@
                   <c:v>63.94791412353516</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>73.92990112304688</c:v>
+                  <c:v>73.92990875244141</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>66.49957275390625</c:v>
@@ -6008,7 +6008,7 @@
                   <c:v>65.56221771240234</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>62.74313354492188</c:v>
+                  <c:v>62.74312591552734</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>63.38755798339844</c:v>
@@ -6116,7 +6116,7 @@
                   <c:v>67.00244140625</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>63.97709655761719</c:v>
+                  <c:v>63.97708892822266</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>72.92150115966797</c:v>
@@ -7411,7 +7411,7 @@
         <v>74.5719</v>
       </c>
       <c r="F26">
-        <v>63.12751007080078</v>
+        <v>63.12750244140625</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>42.0409</v>
       </c>
       <c r="F41">
-        <v>73.92990112304688</v>
+        <v>73.92990875244141</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>60.7068</v>
       </c>
       <c r="F47">
-        <v>62.74313354492188</v>
+        <v>62.74312591552734</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>88.9012</v>
       </c>
       <c r="F83">
-        <v>63.97709655761719</v>
+        <v>63.97708892822266</v>
       </c>
     </row>
     <row r="84" spans="1:6">
